--- a/day3/Forecasting_excel_td_version.xlsx
+++ b/day3/Forecasting_excel_td_version.xlsx
@@ -22,15 +22,20 @@
   <definedNames>
     <definedName name="Alpha">'LES model'!$H$9</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'LES model'!$H$9</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Original data'!$J$1</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Seasonal adjustment'!#REF!</definedName>
     <definedName name="solver_cct" localSheetId="2" hidden="1">20</definedName>
     <definedName name="solver_cgt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_dia" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_dua" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_gct" localSheetId="2" hidden="1">20</definedName>
     <definedName name="solver_gop" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_iao" localSheetId="2" hidden="1">0</definedName>
@@ -39,47 +44,69 @@
     <definedName name="solver_irs" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ism" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">1000</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_lva" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_mda" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">1000</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mod" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">1000</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_ntr" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_ofx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'LES model'!$J$9</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Original data'!$J$3</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Seasonal adjustment'!#REF!</definedName>
     <definedName name="solver_phr" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_piv" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.00000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pro" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rdp" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_red" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rep" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rtr" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_sel" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tms" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_vir" localSheetId="2" hidden="1">1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Seasonal adjustment'!$A$1:$I$52</definedName>
   </definedNames>
@@ -96,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>Illustration of seasonal adjustment</t>
   </si>
@@ -226,6 +253,30 @@
   <si>
     <t>Indicate how to represent seasonnally adjusted errors to obtain the graph of the figure below</t>
   </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>RMSE exp</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Moving Average</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Sum of square</t>
+  </si>
+  <si>
+    <t>RMSE mov ave</t>
+  </si>
+  <si>
+    <t>Avec addins</t>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +382,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +446,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +566,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -612,6 +669,11 @@
     <xf numFmtId="44" fontId="14" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="14" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="14" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -700,20 +762,3159 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Original data'!$C$1:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Data</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147,6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Original data'!$A$4:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>30742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30926</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31291</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31656</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31837</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31929</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32387</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32478</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32568</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32660</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32752</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32843</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32933</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33117</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33208</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33298</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33390</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33482</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33573</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33664</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33756</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33848</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33939</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34029</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34121</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Original data'!$C$4:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>251.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>260.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>259.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>245.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>298.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>168.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>322.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>393.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>404.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>259.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>401.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>479.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>264.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>402.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>411.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>385.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>232.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>309.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>310.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>205.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>234.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>285.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>258.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>193.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>263.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>292.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>315.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>178.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>274.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>295.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>311.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10AC-4430-ABB5-411C13465387}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Original data'!$D$1:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Exponential</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Forecast</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Original data'!$A$4:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>30742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30926</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31291</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31656</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31837</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31929</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32387</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32478</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32568</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32660</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32752</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32843</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32933</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33117</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33208</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33298</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33390</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33482</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33573</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33664</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33756</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33848</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33939</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34029</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34121</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Original data'!$D$4:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>147.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.67482824150972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219.08412519166313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.34002876800116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196.20016804619934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205.57506382030076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>226.0593248464541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>238.59952290696205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201.81236351959552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218.19515518705541</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>248.42183912658859</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262.8885858636508</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>227.60552125608174</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>263.22829420051892</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>312.07996914143263</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>346.6623287021356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>314.05159878353999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>346.69460575312928</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>390.90893424587364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>424.20543754455969</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>364.27866188128729</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>378.64910050867229</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>390.89313399767832</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>389.02071697900152</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>330.40070578376026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>322.45047606111905</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>318.04406690714399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>308.6525830984537</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>269.8205351278516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>256.53789284048918</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>267.36113545033498</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>264.11322393307694</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>237.52088184827176</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>247.33800800271484</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>264.27368055874513</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>283.37096640461164</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>243.96952719703353</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>255.41840417311798</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>270.41143670437401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-10AC-4430-ABB5-411C13465387}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2002126095"/>
+        <c:axId val="2002109871"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2002126095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002109871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2002109871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002126095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0633029941722048E-2"/>
+          <c:y val="0.16308225108225111"/>
+          <c:w val="0.9073779645610266"/>
+          <c:h val="0.71198827419299859"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Original data'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Original data'!$C$3:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>147.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>273.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>245.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>298.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>168.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>322.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>393.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>404.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>259.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>401.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>479.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>264.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>402.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>411.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>385.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>232.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>309.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>205.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>234.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>285.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>258.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>193.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>263.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>292.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>315.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>178.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>274.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>295.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>311.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE7F-471D-A052-D24F8BEC3A26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Original data'!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exponential</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Original data'!$D$3:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147.6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>186.67482824150972</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>219.08412519166313</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>230.34002876800116</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>196.20016804619934</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>205.57506382030076</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>226.0593248464541</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>238.59952290696205</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>201.81236351959552</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>218.19515518705541</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>248.42183912658859</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>262.8885858636508</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>227.60552125608174</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>263.22829420051892</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>312.07996914143263</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>346.6623287021356</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>314.05159878353999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>346.69460575312928</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>390.90893424587364</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>424.20543754455969</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>364.27866188128729</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>378.64910050867229</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>390.89313399767832</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>389.02071697900152</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>330.40070578376026</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>322.45047606111905</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>318.04406690714399</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>308.6525830984537</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>269.8205351278516</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>256.53789284048918</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>267.36113545033498</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>264.11322393307694</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>237.52088184827176</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>247.33800800271484</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>264.27368055874513</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>283.37096640461164</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>243.96952719703353</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>255.41840417311798</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>270.41143670437401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE7F-471D-A052-D24F8BEC3A26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Original data'!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Moving Average</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Original data'!$F$3:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>212.18</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>226.90000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>228.58</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>225.85999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>204.14000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>225.38000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>240.9</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>246.26</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>228.11999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>264.53999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>294.14</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>315.24</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>309.78000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>356.24000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>384.64</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>401.88</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>373.9</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>402.48</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>404.51999999999992</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0">
+                  <c:v>388.77999999999992</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0">
+                  <c:v>339.38</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0">
+                  <c:v>348.34000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0">
+                  <c:v>329.96000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0">
+                  <c:v>306.3</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0">
+                  <c:v>270.14</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0">
+                  <c:v>270.48</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0">
+                  <c:v>265.71999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0">
+                  <c:v>255.32</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0">
+                  <c:v>235.35999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.0">
+                  <c:v>247.08</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.0">
+                  <c:v>258.7</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.0">
+                  <c:v>264.65999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.0">
+                  <c:v>248.57999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.0">
+                  <c:v>264.84000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.0">
+                  <c:v>271.18</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.0">
+                  <c:v>275.04000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE7F-471D-A052-D24F8BEC3A26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2002105711"/>
+        <c:axId val="2002104047"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2002105711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002104047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2002104047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002105711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Lissage exponentiel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Réel</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Original data'!$C$3:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>147.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>273.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>245.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>298.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>168.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>322.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>393.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>404.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>259.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>401.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>479.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>264.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>402.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>411.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>385.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>232.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>309.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>205.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>234.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>285.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>258.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>193.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>263.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>292.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>315.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>178.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>274.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>295.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>311.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8C0-46A9-B316-BC068F1C9247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Prévision</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Original data'!$H$3:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147.6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>199.7</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>236.4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>242.75</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>191.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>206.11250000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>233.15625</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>246.328125</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>193.4140625</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>219.45703125</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>259.12851562499998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>273.06425781249999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>220.93212890625</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>271.76606445312501</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>332.63303222656248</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>368.46651611328127</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>314.0832580566406</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>357.59162902832031</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>411.09581451416017</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>445.39790725708008</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>354.89895362854003</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>378.74947681427</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>395.02473840713503</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>390.4623692035675</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>311.58118460178378</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>310.39059230089185</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>310.54529615044589</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>301.77264807522295</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>253.43632403761148</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>243.91816201880573</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>264.65908100940283</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>261.67954050470144</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>227.43977025235071</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>245.56988512617534</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>269.03494256308767</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>292.11747128154383</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>235.20873564077192</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>254.85436782038596</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>275.12718391019297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E8C0-46A9-B316-BC068F1C9247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2002115695"/>
+        <c:axId val="2002128175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2002115695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Donnée</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2002128175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2002128175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Valeurs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2002115695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -742,7 +3943,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486275" y="904875"/>
+          <a:off x="7934325" y="752475"/>
           <a:ext cx="6257925" cy="4000500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -750,6 +3951,96 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3037,15 +6328,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
@@ -3055,13 +6351,52 @@
       <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1">
+        <v>0.62500164835403327</v>
+      </c>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2">
+        <f>SUMSQ(E4:E42)</f>
+        <v>224302.8610940527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>30651</v>
       </c>
@@ -3071,8 +6406,24 @@
       <c r="C3" s="8">
         <v>147.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="D3" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="77">
+        <f>SQRT(J2/COUNT(E4:E42))</f>
+        <v>75.837691240358964</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>30742</v>
       </c>
@@ -3082,19 +6433,27 @@
       <c r="C4" s="7">
         <v>251.8</v>
       </c>
-      <c r="D4" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <f>C3</f>
+        <v>147.6</v>
+      </c>
+      <c r="E4" s="2">
+        <f>C4-D4</f>
+        <v>104.20000000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <f>C3</f>
+        <v>147.6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4">
+        <f>SUMSQ(G5:G40)</f>
+        <v>149130.32639999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>30834</v>
       </c>
@@ -3104,8 +6463,35 @@
       <c r="C5" s="7">
         <v>273.10000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f>C4-$J$1*E4</f>
+        <v>186.67482824150972</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E42" si="0">C5-D5</f>
+        <v>86.425171758490308</v>
+      </c>
+      <c r="F5" s="2">
+        <f>AVERAGE(C3:C7)</f>
+        <v>212.18</v>
+      </c>
+      <c r="G5" s="2">
+        <f>C5-F5</f>
+        <v>60.920000000000016</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H42" si="1">0.5*C4+0.5*H4</f>
+        <v>199.7</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="77">
+        <f>SQRT(J4/COUNT(G5:G40))</f>
+        <v>64.362326454741094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>30926</v>
       </c>
@@ -3115,8 +6501,28 @@
       <c r="C6" s="7">
         <v>249.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" ref="D6:D42" si="2">C5-$J$1*E5</f>
+        <v>219.08412519166313</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>30.015874808336861</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F42" si="3">AVERAGE(C4:C8)</f>
+        <v>226.90000000000003</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6:G42" si="4">C6-F6</f>
+        <v>22.19999999999996</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>236.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>31017</v>
       </c>
@@ -3127,425 +6533,1133 @@
       <c r="C7" s="8">
         <v>139.30000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>230.34002876800116</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>-91.04002876800115</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="3"/>
+        <v>228.58</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="4"/>
+        <v>-89.28</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>242.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>31107</v>
       </c>
       <c r="B8" s="48">
-        <f t="shared" ref="B8:B42" si="0">B4</f>
+        <f t="shared" ref="B8:B42" si="5">B4</f>
         <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>221.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>196.20016804619934</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>24.999831953800651</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>225.85999999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="4"/>
+        <v>-4.6599999999999966</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>191.02500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>31199</v>
       </c>
       <c r="B9" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C9" s="2">
         <v>260.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>205.57506382030076</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>54.624936179699233</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>204.14000000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="4"/>
+        <v>56.059999999999974</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>206.11250000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>31291</v>
       </c>
       <c r="B10" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C10" s="2">
         <v>259.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>226.0593248464541</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>33.440675153545897</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>225.38000000000002</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="4"/>
+        <v>34.119999999999976</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>233.15625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>31382</v>
       </c>
       <c r="B11" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C11" s="2">
         <v>140.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>238.59952290696205</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>-98.099522906962051</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="3"/>
+        <v>240.9</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="4"/>
+        <v>-100.4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>246.328125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>31472</v>
       </c>
       <c r="B12" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>245.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>201.81236351959552</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>43.687636480404478</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="3"/>
+        <v>246.26</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.75999999999999091</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>193.4140625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>31564</v>
       </c>
       <c r="B13" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C13" s="2">
         <v>298.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>218.19515518705541</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>80.604844812944606</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="3"/>
+        <v>228.11999999999998</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="4"/>
+        <v>70.680000000000035</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>219.45703125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>31656</v>
       </c>
       <c r="B14" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>287</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>248.42183912658859</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>38.578160873411406</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="3"/>
+        <v>264.53999999999996</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="4"/>
+        <v>22.460000000000036</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>259.12851562499998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>31747</v>
       </c>
       <c r="B15" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C15" s="2">
         <v>168.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>262.8885858636508</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>-94.088585863650792</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="3"/>
+        <v>294.14</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="4"/>
+        <v>-125.33999999999997</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>273.06425781249999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>31837</v>
       </c>
       <c r="B16" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>322.60000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>227.60552125608174</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>94.994478743918279</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="3"/>
+        <v>315.24</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="4"/>
+        <v>7.3600000000000136</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>220.93212890625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>31929</v>
       </c>
       <c r="B17" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C17" s="2">
         <v>393.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>263.22829420051892</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>130.27170579948108</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="3"/>
+        <v>309.78000000000003</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="4"/>
+        <v>83.71999999999997</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>271.76606445312501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>32021</v>
       </c>
       <c r="B18" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C18" s="2">
         <v>404.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>312.07996914143263</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>92.220030858567384</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="3"/>
+        <v>356.24000000000007</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="4"/>
+        <v>48.059999999999945</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>332.63303222656248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>32112</v>
       </c>
       <c r="B19" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C19" s="2">
         <v>259.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>346.6623287021356</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>-86.962328702135608</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="3"/>
+        <v>384.64</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="4"/>
+        <v>-124.94</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>368.46651611328127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>32203</v>
       </c>
       <c r="B20" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>401.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>314.05159878353999</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>87.048401216460036</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="3"/>
+        <v>401.88</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.77999999999997272</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>314.0832580566406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>32295</v>
       </c>
       <c r="B21" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C21" s="2">
         <v>464.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>346.69460575312928</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>117.90539424687074</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="3"/>
+        <v>373.9</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="4"/>
+        <v>90.700000000000045</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>357.59162902832031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>32387</v>
       </c>
       <c r="B22" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C22" s="2">
         <v>479.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>390.90893424587364</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>88.79106575412635</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="3"/>
+        <v>402.48</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="4"/>
+        <v>77.21999999999997</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>411.09581451416017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>32478</v>
       </c>
       <c r="B23" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C23" s="2">
         <v>264.39999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>424.20543754455969</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>-159.80543754455971</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="3"/>
+        <v>404.51999999999992</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="4"/>
+        <v>-140.11999999999995</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>445.39790725708008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>32568</v>
       </c>
       <c r="B24" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>402.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>364.27866188128729</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>38.321338118712731</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="3"/>
+        <v>388.77999999999992</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="4"/>
+        <v>13.820000000000107</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>354.89895362854003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>32660</v>
       </c>
       <c r="B25" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C25" s="2">
         <v>411.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>378.64910050867229</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>32.650899491327721</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>339.38</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="4"/>
+        <v>71.920000000000016</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>378.74947681427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>32752</v>
       </c>
       <c r="B26" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C26" s="2">
         <v>385.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>390.89313399767832</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.993133997678342</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="3"/>
+        <v>348.34000000000003</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="4"/>
+        <v>37.559999999999945</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>395.02473840713503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>32843</v>
       </c>
       <c r="B27" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C27" s="2">
         <v>232.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>389.02071697900152</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>-156.32071697900153</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="3"/>
+        <v>329.96000000000004</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="4"/>
+        <v>-97.260000000000048</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>390.4623692035675</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>32933</v>
       </c>
       <c r="B28" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>309.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>330.40070578376026</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>-21.20070578376027</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="3"/>
+        <v>306.3</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8999999999999773</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>311.58118460178378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>33025</v>
       </c>
       <c r="B29" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C29" s="2">
         <v>310.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>322.45047606111905</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>-11.750476061119059</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="3"/>
+        <v>270.14</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="4"/>
+        <v>40.56</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>310.39059230089185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>33117</v>
       </c>
       <c r="B30" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C30" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>318.04406690714399</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>-25.044066907143986</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="3"/>
+        <v>270.48</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="4"/>
+        <v>22.519999999999982</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>310.54529615044589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>33208</v>
       </c>
       <c r="B31" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C31" s="2">
         <v>205.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>308.6525830984537</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-103.55258309845371</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="3"/>
+        <v>265.71999999999997</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>-60.619999999999976</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>301.77264807522295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>33298</v>
       </c>
       <c r="B32" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>234.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>269.8205351278516</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-35.420535127851593</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="3"/>
+        <v>255.32</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="4"/>
+        <v>-20.919999999999987</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>253.43632403761148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>33390</v>
       </c>
       <c r="B33" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C33" s="2">
         <v>285.39999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>256.53789284048918</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>28.862107159510799</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="3"/>
+        <v>235.35999999999999</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="4"/>
+        <v>50.039999999999992</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>243.91816201880573</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>33482</v>
       </c>
       <c r="B34" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C34" s="2">
         <v>258.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>267.36113545033498</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.6611354503349958</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="3"/>
+        <v>247.08</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="4"/>
+        <v>11.619999999999976</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>264.65908100940283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>33573</v>
       </c>
       <c r="B35" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C35" s="2">
         <v>193.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>264.11322393307694</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>-70.913223933076949</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="3"/>
+        <v>258.7</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="4"/>
+        <v>-65.5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>261.67954050470144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>33664</v>
       </c>
       <c r="B36" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>263.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>237.52088184827176</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>26.179118151728233</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="3"/>
+        <v>264.65999999999997</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.95999999999997954</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>227.43977025235071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>33756</v>
       </c>
       <c r="B37" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C37" s="2">
         <v>292.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>247.33800800271484</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>45.161991997285156</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="3"/>
+        <v>248.57999999999998</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="4"/>
+        <v>43.920000000000016</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>245.56988512617534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>33848</v>
       </c>
       <c r="B38" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C38" s="2">
         <v>315.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>264.27368055874513</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>50.926319441254861</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="3"/>
+        <v>264.84000000000003</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="4"/>
+        <v>50.359999999999957</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>269.03494256308767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>33939</v>
       </c>
       <c r="B39" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C39" s="2">
         <v>178.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>283.37096640461164</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>-105.07096640461162</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="3"/>
+        <v>271.18</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="4"/>
+        <v>-92.88</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>292.11747128154383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>34029</v>
       </c>
       <c r="B40" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C40" s="2">
         <v>274.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>243.96952719703353</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>30.530472802966472</v>
+      </c>
+      <c r="F40" s="2">
+        <f>AVERAGE(C38:C42)</f>
+        <v>275.04000000000002</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.54000000000002046</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>235.20873564077192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>34121</v>
       </c>
       <c r="B41" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C41" s="2">
         <v>295.39999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>255.41840417311798</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>39.981595826882</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>254.85436782038596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>34213</v>
       </c>
       <c r="B42" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C42" s="13">
         <v>311.8</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>270.41143670437401</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>41.388563295626</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>275.12718391019297</v>
       </c>
     </row>
   </sheetData>
@@ -3561,8 +7675,8 @@
   </sheetPr>
   <dimension ref="A1:AL62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4839,8 +8953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
